--- a/Data Cleaning and Preperation.xlsx
+++ b/Data Cleaning and Preperation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e61cb0b3d4a7a923/Pictures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{0F963475-EB37-46C7-A801-9C7B009174C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7D129D-C610-4E59-8D3F-161F0FBDF2FB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="14_{0F963475-EB37-46C7-A801-9C7B009174C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3D7FBE-5771-452E-8AFC-945F7B23D98C}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GzQen7ohJj6hzOXch2dlor10E5el7MnY7FQXFsVXIkB/Vmw2qfFLOxbeYqsn9/8RS+wV/ug4/J6+jbuTMtMugA==" workbookSaltValue="1tmS/bgp+KKi1AT1Gfbvgw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -23,7 +23,7 @@
     <definedName name="Check_Sum_Short">IFERROR(SUM(_xlfn.UNICODE(Data!A$5:A$500))+SUM(LEN(Data!A$5:A$500)),0)</definedName>
     <definedName name="Normal_Sum" localSheetId="1">IFERROR(SUM(Data!A$5:A$500),0)</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4121,15 +4121,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>598394</xdr:colOff>
-          <xdr:row>542</xdr:row>
-          <xdr:rowOff>94129</xdr:rowOff>
+          <xdr:colOff>572994</xdr:colOff>
+          <xdr:row>512</xdr:row>
+          <xdr:rowOff>147171</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>163606</xdr:colOff>
-          <xdr:row>543</xdr:row>
-          <xdr:rowOff>104215</xdr:rowOff>
+          <xdr:colOff>138206</xdr:colOff>
+          <xdr:row>513</xdr:row>
+          <xdr:rowOff>157256</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4179,15 +4179,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>598394</xdr:colOff>
-          <xdr:row>542</xdr:row>
-          <xdr:rowOff>94129</xdr:rowOff>
+          <xdr:colOff>572994</xdr:colOff>
+          <xdr:row>512</xdr:row>
+          <xdr:rowOff>147171</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>163606</xdr:colOff>
-          <xdr:row>543</xdr:row>
-          <xdr:rowOff>104215</xdr:rowOff>
+          <xdr:colOff>138206</xdr:colOff>
+          <xdr:row>513</xdr:row>
+          <xdr:rowOff>157256</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4237,15 +4237,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>598394</xdr:colOff>
-          <xdr:row>542</xdr:row>
-          <xdr:rowOff>94129</xdr:rowOff>
+          <xdr:colOff>572994</xdr:colOff>
+          <xdr:row>512</xdr:row>
+          <xdr:rowOff>147171</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>163606</xdr:colOff>
-          <xdr:row>543</xdr:row>
-          <xdr:rowOff>104215</xdr:rowOff>
+          <xdr:colOff>138206</xdr:colOff>
+          <xdr:row>513</xdr:row>
+          <xdr:rowOff>157256</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4596,15 +4596,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CFF0B1-398B-4CC6-B107-39234D8B6CE8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="65" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="65" workbookViewId="0">
       <selection activeCell="AC92" sqref="AC92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4614,7 +4615,7 @@
   <dimension ref="A1:V562"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
@@ -48998,85 +48999,86 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D5:D41 C2 E2" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId3" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
+        <control shapeId="2052" r:id="rId4" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>596900</xdr:colOff>
-                <xdr:row>542</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>512</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>165100</xdr:colOff>
-                <xdr:row>543</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:colOff>139700</xdr:colOff>
+                <xdr:row>513</xdr:row>
+                <xdr:rowOff>158750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId3" name="Control 4"/>
+        <control shapeId="2052" r:id="rId4" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId5" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId4">
+        <control shapeId="2053" r:id="rId6" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>596900</xdr:colOff>
-                <xdr:row>542</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>512</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>165100</xdr:colOff>
-                <xdr:row>543</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:colOff>139700</xdr:colOff>
+                <xdr:row>513</xdr:row>
+                <xdr:rowOff>158750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId5" name="Control 5"/>
+        <control shapeId="2053" r:id="rId6" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId6" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="2054" r:id="rId7" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>596900</xdr:colOff>
-                <xdr:row>542</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>512</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>165100</xdr:colOff>
-                <xdr:row>543</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:colOff>139700</xdr:colOff>
+                <xdr:row>513</xdr:row>
+                <xdr:rowOff>158750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId6" name="Control 6"/>
+        <control shapeId="2054" r:id="rId7" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -60046,5 +60048,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>